--- a/sheets/EDITAL/master.xlsx
+++ b/sheets/EDITAL/master.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/sheets/EDITAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76252F89-BADB-443B-A609-1525047E31E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{76252F89-BADB-443B-A609-1525047E31E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD11AC18-6DE0-4F9C-838C-D97C9FB70905}"/>
   <bookViews>
-    <workbookView xWindow="-16296" yWindow="-1032" windowWidth="16392" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16308" yWindow="-15180" windowWidth="16416" windowHeight="28296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$227</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1583,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N229"/>
+  <dimension ref="A1:N227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6479,7 +6479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="37" t="s">
         <v>49</v>
       </c>
@@ -6509,129 +6509,147 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="43"/>
-      <c r="B170" s="21"/>
-      <c r="C170" s="43"/>
-      <c r="D170" s="21"/>
-      <c r="E170" s="21"/>
-      <c r="F170" s="22"/>
-      <c r="G170" s="22"/>
-      <c r="H170" s="21"/>
-      <c r="I170" s="21"/>
+      <c r="A170" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B170" s="20">
+        <v>15</v>
+      </c>
+      <c r="C170" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D170" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="20">
+        <v>2</v>
+      </c>
+      <c r="F170" s="33">
+        <v>375.67</v>
+      </c>
+      <c r="G170" s="33">
+        <v>751.34</v>
+      </c>
+      <c r="H170" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I170" s="19" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="171" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="42" t="s">
+      <c r="A171" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B171" s="20">
+      <c r="B171" s="14">
+        <v>6</v>
+      </c>
+      <c r="C171" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="14">
+        <v>5</v>
+      </c>
+      <c r="F171" s="32">
+        <v>149.22999999999999</v>
+      </c>
+      <c r="G171" s="32">
+        <v>746.15</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" s="4">
+        <v>59</v>
+      </c>
+      <c r="C172" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="4">
         <v>15</v>
       </c>
-      <c r="C171" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D171" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="20">
-        <v>2</v>
-      </c>
-      <c r="F171" s="33">
-        <v>375.67</v>
-      </c>
-      <c r="G171" s="33">
-        <v>751.34</v>
-      </c>
-      <c r="H171" s="19" t="s">
+      <c r="F172" s="5">
+        <v>49.63</v>
+      </c>
+      <c r="G172" s="5">
+        <v>744.45</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" s="11">
+        <v>8</v>
+      </c>
+      <c r="C173" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="11">
+        <v>1</v>
+      </c>
+      <c r="F173" s="31">
+        <v>708.33</v>
+      </c>
+      <c r="G173" s="31">
+        <v>708.33</v>
+      </c>
+      <c r="H173" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I171" s="19" t="s">
+      <c r="I173" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="40" t="s">
+    <row r="174" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B172" s="14">
-        <v>6</v>
-      </c>
-      <c r="C172" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="14">
-        <v>5</v>
-      </c>
-      <c r="F172" s="32">
-        <v>149.22999999999999</v>
-      </c>
-      <c r="G172" s="32">
-        <v>746.15</v>
-      </c>
-      <c r="H172" s="13" t="s">
+      <c r="B174" s="20">
+        <v>9</v>
+      </c>
+      <c r="C174" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D174" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="20">
+        <v>1</v>
+      </c>
+      <c r="F174" s="33">
+        <v>685.1</v>
+      </c>
+      <c r="G174" s="33">
+        <v>685.1</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I172" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B173" s="4">
-        <v>59</v>
-      </c>
-      <c r="C173" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="4">
-        <v>15</v>
-      </c>
-      <c r="F173" s="5">
-        <v>49.63</v>
-      </c>
-      <c r="G173" s="5">
-        <v>744.45</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I173" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B174" s="11">
-        <v>8</v>
-      </c>
-      <c r="C174" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="11">
-        <v>1</v>
-      </c>
-      <c r="F174" s="31">
-        <v>708.33</v>
-      </c>
-      <c r="G174" s="31">
-        <v>708.33</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I174" s="10" t="s">
+      <c r="I174" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6640,22 +6658,22 @@
         <v>52</v>
       </c>
       <c r="B175" s="20">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="D175" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F175" s="33">
-        <v>685.1</v>
+        <v>57.08</v>
       </c>
       <c r="G175" s="33">
-        <v>685.1</v>
+        <v>684.96</v>
       </c>
       <c r="H175" s="19" t="s">
         <v>54</v>
@@ -6665,206 +6683,206 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B176" s="20">
-        <v>22</v>
-      </c>
-      <c r="C176" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D176" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="20">
-        <v>12</v>
-      </c>
-      <c r="F176" s="33">
-        <v>57.08</v>
-      </c>
-      <c r="G176" s="33">
-        <v>684.96</v>
-      </c>
-      <c r="H176" s="19" t="s">
+      <c r="B176" s="14">
+        <v>9</v>
+      </c>
+      <c r="C176" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="14">
+        <v>15</v>
+      </c>
+      <c r="F176" s="32">
+        <v>45.43</v>
+      </c>
+      <c r="G176" s="32">
+        <v>681.45</v>
+      </c>
+      <c r="H176" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I176" s="19" t="s">
+      <c r="I176" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B177" s="14">
-        <v>9</v>
-      </c>
-      <c r="C177" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="14">
-        <v>15</v>
-      </c>
-      <c r="F177" s="32">
-        <v>45.43</v>
-      </c>
-      <c r="G177" s="32">
-        <v>681.45</v>
-      </c>
-      <c r="H177" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>24</v>
+      <c r="A177" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" s="4">
+        <v>19</v>
+      </c>
+      <c r="C177" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1</v>
+      </c>
+      <c r="F177" s="5">
+        <v>670</v>
+      </c>
+      <c r="G177" s="5">
+        <v>670</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B178" s="4">
-        <v>19</v>
-      </c>
-      <c r="C178" s="37" t="s">
-        <v>88</v>
+        <v>31</v>
+      </c>
+      <c r="C178" s="47" t="s">
+        <v>135</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E178" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F178" s="5">
-        <v>670</v>
+        <v>31.2</v>
       </c>
       <c r="G178" s="5">
-        <v>670</v>
+        <v>624</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B179" s="4">
-        <v>31</v>
-      </c>
-      <c r="C179" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="4">
-        <v>20</v>
-      </c>
-      <c r="F179" s="5">
-        <v>31.2</v>
-      </c>
-      <c r="G179" s="5">
-        <v>624</v>
-      </c>
-      <c r="H179" s="4" t="s">
+      <c r="A179" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179" s="11">
+        <v>15</v>
+      </c>
+      <c r="C179" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="11">
+        <v>4</v>
+      </c>
+      <c r="F179" s="31">
+        <v>149.49</v>
+      </c>
+      <c r="G179" s="31">
+        <v>597.96</v>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I179" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="20">
+        <v>8</v>
+      </c>
+      <c r="C180" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D180" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="20">
+        <v>4</v>
+      </c>
+      <c r="F180" s="33">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="G180" s="33">
+        <v>589.20000000000005</v>
+      </c>
+      <c r="H180" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I180" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="14">
+        <v>17</v>
+      </c>
+      <c r="C181" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D181" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="14">
+        <v>30</v>
+      </c>
+      <c r="F181" s="32">
+        <v>18.97</v>
+      </c>
+      <c r="G181" s="32">
+        <v>569.1</v>
+      </c>
+      <c r="H181" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I181" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B182" s="4">
+        <v>72</v>
+      </c>
+      <c r="C182" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="4">
+        <v>3</v>
+      </c>
+      <c r="F182" s="5">
+        <v>188.37</v>
+      </c>
+      <c r="G182" s="5">
+        <v>565.11</v>
+      </c>
+      <c r="H182" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I179" s="4" t="s">
+      <c r="I182" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B180" s="11">
-        <v>15</v>
-      </c>
-      <c r="C180" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" s="11">
-        <v>4</v>
-      </c>
-      <c r="F180" s="31">
-        <v>149.49</v>
-      </c>
-      <c r="G180" s="31">
-        <v>597.96</v>
-      </c>
-      <c r="H180" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I180" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B181" s="20">
-        <v>8</v>
-      </c>
-      <c r="C181" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D181" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181" s="20">
-        <v>4</v>
-      </c>
-      <c r="F181" s="33">
-        <v>147.30000000000001</v>
-      </c>
-      <c r="G181" s="33">
-        <v>589.20000000000005</v>
-      </c>
-      <c r="H181" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I181" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B182" s="14">
-        <v>17</v>
-      </c>
-      <c r="C182" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" s="14">
-        <v>30</v>
-      </c>
-      <c r="F182" s="32">
-        <v>18.97</v>
-      </c>
-      <c r="G182" s="32">
-        <v>569.1</v>
-      </c>
-      <c r="H182" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I182" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6872,10 +6890,10 @@
         <v>45</v>
       </c>
       <c r="B183" s="4">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C183" s="47" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>9</v>
@@ -6884,10 +6902,10 @@
         <v>3</v>
       </c>
       <c r="F183" s="5">
-        <v>188.37</v>
+        <v>188.3</v>
       </c>
       <c r="G183" s="5">
-        <v>565.11</v>
+        <v>564.9</v>
       </c>
       <c r="H183" s="4" t="s">
         <v>46</v>
@@ -6901,22 +6919,22 @@
         <v>45</v>
       </c>
       <c r="B184" s="4">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C184" s="47" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E184" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F184" s="5">
-        <v>188.3</v>
+        <v>533.27</v>
       </c>
       <c r="G184" s="5">
-        <v>564.9</v>
+        <v>533.27</v>
       </c>
       <c r="H184" s="4" t="s">
         <v>46</v>
@@ -6930,22 +6948,22 @@
         <v>45</v>
       </c>
       <c r="B185" s="4">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E185" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F185" s="5">
-        <v>533.27</v>
+        <v>35.03</v>
       </c>
       <c r="G185" s="5">
-        <v>533.27</v>
+        <v>525.45000000000005</v>
       </c>
       <c r="H185" s="4" t="s">
         <v>46</v>
@@ -6955,264 +6973,264 @@
       </c>
     </row>
     <row r="186" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B186" s="4">
-        <v>75</v>
-      </c>
-      <c r="C186" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" s="4">
-        <v>15</v>
-      </c>
-      <c r="F186" s="5">
-        <v>35.03</v>
-      </c>
-      <c r="G186" s="5">
-        <v>525.45000000000005</v>
-      </c>
-      <c r="H186" s="4" t="s">
+      <c r="A186" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B186" s="9">
+        <v>12</v>
+      </c>
+      <c r="C186" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="9">
+        <v>8</v>
+      </c>
+      <c r="F186" s="30">
+        <v>64.73</v>
+      </c>
+      <c r="G186" s="30">
+        <v>517.84</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B187" s="4">
+        <v>48</v>
+      </c>
+      <c r="C187" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="4">
+        <v>10</v>
+      </c>
+      <c r="F187" s="5">
+        <v>50.67</v>
+      </c>
+      <c r="G187" s="5">
+        <v>506.7</v>
+      </c>
+      <c r="H187" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I186" s="4" t="s">
+      <c r="I187" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="38" t="s">
+    <row r="188" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B187" s="9">
-        <v>12</v>
-      </c>
-      <c r="C187" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" s="9">
-        <v>8</v>
-      </c>
-      <c r="F187" s="30">
-        <v>64.73</v>
-      </c>
-      <c r="G187" s="30">
-        <v>517.84</v>
-      </c>
-      <c r="H187" s="6" t="s">
+      <c r="B188" s="11">
+        <v>9</v>
+      </c>
+      <c r="C188" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="11">
+        <v>10</v>
+      </c>
+      <c r="F188" s="31">
+        <v>68.97</v>
+      </c>
+      <c r="G188" s="31">
+        <v>489.7</v>
+      </c>
+      <c r="H188" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I187" s="6" t="s">
+      <c r="I188" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B188" s="4">
-        <v>48</v>
-      </c>
-      <c r="C188" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" s="4">
+    <row r="189" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189" s="20">
+        <v>11</v>
+      </c>
+      <c r="C189" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="20">
+        <v>7</v>
+      </c>
+      <c r="F189" s="33">
+        <v>68.67</v>
+      </c>
+      <c r="G189" s="33">
+        <v>480.69</v>
+      </c>
+      <c r="H189" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I189" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B190" s="14">
         <v>10</v>
       </c>
-      <c r="F188" s="5">
-        <v>50.67</v>
-      </c>
-      <c r="G188" s="5">
-        <v>506.7</v>
-      </c>
-      <c r="H188" s="4" t="s">
+      <c r="C190" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D190" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="14">
+        <v>7</v>
+      </c>
+      <c r="F190" s="32">
+        <v>68.67</v>
+      </c>
+      <c r="G190" s="32">
+        <v>480.69</v>
+      </c>
+      <c r="H190" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I190" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" s="4">
+        <v>10</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1</v>
+      </c>
+      <c r="F191" s="5">
+        <v>480</v>
+      </c>
+      <c r="G191" s="5">
+        <v>480</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I191" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192" s="11">
+        <v>4</v>
+      </c>
+      <c r="C192" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="11">
+        <v>10</v>
+      </c>
+      <c r="F192" s="31">
+        <v>47.95</v>
+      </c>
+      <c r="G192" s="31">
+        <v>479.5</v>
+      </c>
+      <c r="H192" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I192" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B193" s="14">
+        <v>1</v>
+      </c>
+      <c r="C193" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D193" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="14">
+        <v>7</v>
+      </c>
+      <c r="F193" s="32">
+        <v>68.3</v>
+      </c>
+      <c r="G193" s="32">
+        <v>478.1</v>
+      </c>
+      <c r="H193" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I193" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B194" s="4">
+        <v>53</v>
+      </c>
+      <c r="C194" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="4">
+        <v>1</v>
+      </c>
+      <c r="F194" s="5">
+        <v>472.34</v>
+      </c>
+      <c r="G194" s="5">
+        <v>472.34</v>
+      </c>
+      <c r="H194" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I188" s="4" t="s">
+      <c r="I194" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B189" s="11">
-        <v>9</v>
-      </c>
-      <c r="C189" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="D189" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189" s="11">
-        <v>10</v>
-      </c>
-      <c r="F189" s="31">
-        <v>68.97</v>
-      </c>
-      <c r="G189" s="31">
-        <v>489.7</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I189" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B190" s="20">
-        <v>11</v>
-      </c>
-      <c r="C190" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D190" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" s="20">
-        <v>7</v>
-      </c>
-      <c r="F190" s="33">
-        <v>68.67</v>
-      </c>
-      <c r="G190" s="33">
-        <v>480.69</v>
-      </c>
-      <c r="H190" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I190" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B191" s="14">
-        <v>10</v>
-      </c>
-      <c r="C191" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="D191" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" s="14">
-        <v>7</v>
-      </c>
-      <c r="F191" s="32">
-        <v>68.67</v>
-      </c>
-      <c r="G191" s="32">
-        <v>480.69</v>
-      </c>
-      <c r="H191" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I191" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B192" s="4">
-        <v>10</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E192" s="4">
-        <v>1</v>
-      </c>
-      <c r="F192" s="5">
-        <v>480</v>
-      </c>
-      <c r="G192" s="5">
-        <v>480</v>
-      </c>
-      <c r="H192" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I192" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B193" s="11">
-        <v>4</v>
-      </c>
-      <c r="C193" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D193" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" s="11">
-        <v>10</v>
-      </c>
-      <c r="F193" s="31">
-        <v>47.95</v>
-      </c>
-      <c r="G193" s="31">
-        <v>479.5</v>
-      </c>
-      <c r="H193" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I193" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194" s="14">
-        <v>1</v>
-      </c>
-      <c r="C194" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194" s="14">
-        <v>7</v>
-      </c>
-      <c r="F194" s="32">
-        <v>68.3</v>
-      </c>
-      <c r="G194" s="32">
-        <v>478.1</v>
-      </c>
-      <c r="H194" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I194" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7220,22 +7238,22 @@
         <v>45</v>
       </c>
       <c r="B195" s="4">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C195" s="47" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E195" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F195" s="5">
-        <v>472.34</v>
+        <v>150.77000000000001</v>
       </c>
       <c r="G195" s="5">
-        <v>472.34</v>
+        <v>452.31</v>
       </c>
       <c r="H195" s="4" t="s">
         <v>46</v>
@@ -7245,61 +7263,61 @@
       </c>
     </row>
     <row r="196" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B196" s="4">
-        <v>41</v>
-      </c>
-      <c r="C196" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E196" s="4">
-        <v>3</v>
-      </c>
-      <c r="F196" s="5">
-        <v>150.77000000000001</v>
-      </c>
-      <c r="G196" s="5">
-        <v>452.31</v>
-      </c>
-      <c r="H196" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I196" s="4" t="s">
-        <v>44</v>
+      <c r="A196" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B196" s="9">
+        <v>13</v>
+      </c>
+      <c r="C196" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="9">
+        <v>1</v>
+      </c>
+      <c r="F196" s="30">
+        <v>448.64</v>
+      </c>
+      <c r="G196" s="30">
+        <v>448.64</v>
+      </c>
+      <c r="H196" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B197" s="9">
-        <v>13</v>
-      </c>
-      <c r="C197" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E197" s="9">
+      <c r="A197" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" s="4">
+        <v>11</v>
+      </c>
+      <c r="C197" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="4">
         <v>1</v>
       </c>
-      <c r="F197" s="30">
-        <v>448.64</v>
-      </c>
-      <c r="G197" s="30">
-        <v>448.64</v>
-      </c>
-      <c r="H197" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I197" s="6" t="s">
-        <v>24</v>
+      <c r="F197" s="5">
+        <v>426</v>
+      </c>
+      <c r="G197" s="5">
+        <v>426</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I197" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7307,10 +7325,10 @@
         <v>49</v>
       </c>
       <c r="B198" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C198" s="37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>9</v>
@@ -7319,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="F198" s="5">
-        <v>426</v>
+        <v>400.08</v>
       </c>
       <c r="G198" s="5">
-        <v>426</v>
+        <v>400.08</v>
       </c>
       <c r="H198" s="4" t="s">
         <v>21</v>
@@ -7333,117 +7351,117 @@
     </row>
     <row r="199" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="37" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B199" s="4">
-        <v>4</v>
-      </c>
-      <c r="C199" s="37" t="s">
-        <v>79</v>
+        <v>37</v>
+      </c>
+      <c r="C199" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E199" s="4">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F199" s="5">
-        <v>400.08</v>
+        <v>8.83</v>
       </c>
       <c r="G199" s="5">
-        <v>400.08</v>
+        <v>397.35</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="37" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B200" s="4">
-        <v>37</v>
-      </c>
-      <c r="C200" s="47" t="s">
-        <v>141</v>
+        <v>12</v>
+      </c>
+      <c r="C200" s="37" t="s">
+        <v>85</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E200" s="4">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F200" s="5">
-        <v>8.83</v>
+        <v>390</v>
       </c>
       <c r="G200" s="5">
-        <v>397.35</v>
+        <v>390</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B201" s="4">
+      <c r="A201" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" s="11">
+        <v>23</v>
+      </c>
+      <c r="C201" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="11">
+        <v>10</v>
+      </c>
+      <c r="F201" s="31">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="G201" s="31">
+        <v>386.6</v>
+      </c>
+      <c r="H201" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B202" s="20">
+        <v>2</v>
+      </c>
+      <c r="C202" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="20">
         <v>12</v>
       </c>
-      <c r="C201" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E201" s="4">
-        <v>1</v>
-      </c>
-      <c r="F201" s="5">
-        <v>390</v>
-      </c>
-      <c r="G201" s="5">
-        <v>390</v>
-      </c>
-      <c r="H201" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I201" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B202" s="11">
-        <v>23</v>
-      </c>
-      <c r="C202" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D202" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202" s="11">
-        <v>10</v>
-      </c>
-      <c r="F202" s="31">
-        <v>38.659999999999997</v>
-      </c>
-      <c r="G202" s="31">
-        <v>386.6</v>
-      </c>
-      <c r="H202" s="10" t="s">
+      <c r="F202" s="33">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="G202" s="33">
+        <v>384.24</v>
+      </c>
+      <c r="H202" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I202" s="10" t="s">
+      <c r="I202" s="19" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7452,22 +7470,22 @@
         <v>52</v>
       </c>
       <c r="B203" s="20">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C203" s="51" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D203" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E203" s="20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F203" s="33">
-        <v>32.020000000000003</v>
+        <v>19</v>
       </c>
       <c r="G203" s="33">
-        <v>384.24</v>
+        <v>380</v>
       </c>
       <c r="H203" s="19" t="s">
         <v>54</v>
@@ -7481,22 +7499,22 @@
         <v>52</v>
       </c>
       <c r="B204" s="20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C204" s="51" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D204" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E204" s="20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F204" s="33">
-        <v>19</v>
+        <v>368.51</v>
       </c>
       <c r="G204" s="33">
-        <v>380</v>
+        <v>368.51</v>
       </c>
       <c r="H204" s="19" t="s">
         <v>54</v>
@@ -7510,22 +7528,22 @@
         <v>52</v>
       </c>
       <c r="B205" s="20">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C205" s="51" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D205" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E205" s="20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F205" s="33">
-        <v>368.51</v>
+        <v>36.33</v>
       </c>
       <c r="G205" s="33">
-        <v>368.51</v>
+        <v>363.3</v>
       </c>
       <c r="H205" s="19" t="s">
         <v>54</v>
@@ -7539,22 +7557,22 @@
         <v>52</v>
       </c>
       <c r="B206" s="20">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C206" s="51" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D206" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E206" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F206" s="33">
-        <v>36.33</v>
+        <v>17</v>
       </c>
       <c r="G206" s="33">
-        <v>363.3</v>
+        <v>340</v>
       </c>
       <c r="H206" s="19" t="s">
         <v>54</v>
@@ -7568,22 +7586,22 @@
         <v>52</v>
       </c>
       <c r="B207" s="20">
+        <v>16</v>
+      </c>
+      <c r="C207" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D207" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="20">
         <v>6</v>
       </c>
-      <c r="C207" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="D207" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" s="20">
-        <v>20</v>
-      </c>
       <c r="F207" s="33">
-        <v>17</v>
+        <v>53.17</v>
       </c>
       <c r="G207" s="33">
-        <v>340</v>
+        <v>319.02</v>
       </c>
       <c r="H207" s="19" t="s">
         <v>54</v>
@@ -7597,22 +7615,22 @@
         <v>52</v>
       </c>
       <c r="B208" s="20">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C208" s="51" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="D208" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E208" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F208" s="33">
-        <v>53.17</v>
+        <v>63.51</v>
       </c>
       <c r="G208" s="33">
-        <v>319.02</v>
+        <v>317.55</v>
       </c>
       <c r="H208" s="19" t="s">
         <v>54</v>
@@ -7626,22 +7644,22 @@
         <v>52</v>
       </c>
       <c r="B209" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C209" s="51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D209" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E209" s="20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F209" s="33">
-        <v>63.51</v>
+        <v>31.61</v>
       </c>
       <c r="G209" s="33">
-        <v>317.55</v>
+        <v>316.10000000000002</v>
       </c>
       <c r="H209" s="19" t="s">
         <v>54</v>
@@ -7655,22 +7673,22 @@
         <v>52</v>
       </c>
       <c r="B210" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C210" s="51" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="D210" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E210" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F210" s="33">
-        <v>31.61</v>
+        <v>26.13</v>
       </c>
       <c r="G210" s="33">
-        <v>316.10000000000002</v>
+        <v>313.56</v>
       </c>
       <c r="H210" s="19" t="s">
         <v>54</v>
@@ -7684,22 +7702,22 @@
         <v>52</v>
       </c>
       <c r="B211" s="20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C211" s="51" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D211" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E211" s="20">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F211" s="33">
-        <v>26.13</v>
+        <v>74.67</v>
       </c>
       <c r="G211" s="33">
-        <v>313.56</v>
+        <v>298.68</v>
       </c>
       <c r="H211" s="19" t="s">
         <v>54</v>
@@ -7713,22 +7731,22 @@
         <v>52</v>
       </c>
       <c r="B212" s="20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C212" s="51" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="D212" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E212" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F212" s="33">
-        <v>74.67</v>
+        <v>91.76</v>
       </c>
       <c r="G212" s="33">
-        <v>298.68</v>
+        <v>275.27999999999997</v>
       </c>
       <c r="H212" s="19" t="s">
         <v>54</v>
@@ -7742,22 +7760,22 @@
         <v>52</v>
       </c>
       <c r="B213" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D213" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E213" s="20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F213" s="33">
-        <v>91.76</v>
+        <v>54.07</v>
       </c>
       <c r="G213" s="33">
-        <v>275.27999999999997</v>
+        <v>270.35000000000002</v>
       </c>
       <c r="H213" s="19" t="s">
         <v>54</v>
@@ -7767,101 +7785,119 @@
       </c>
     </row>
     <row r="214" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="42" t="s">
+      <c r="A214" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B214" s="25">
+        <v>30</v>
+      </c>
+      <c r="C214" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D214" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="25">
+        <v>4</v>
+      </c>
+      <c r="F214" s="26">
+        <v>66.66</v>
+      </c>
+      <c r="G214" s="26">
+        <v>266.64</v>
+      </c>
+      <c r="H214" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I214" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B214" s="20">
-        <v>6</v>
-      </c>
-      <c r="C214" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D214" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" s="20">
+      <c r="B215" s="14">
+        <v>8</v>
+      </c>
+      <c r="C215" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D215" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="14">
+        <v>10</v>
+      </c>
+      <c r="F215" s="32">
+        <v>25.74</v>
+      </c>
+      <c r="G215" s="32">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="H215" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I215" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" s="4">
+        <v>77</v>
+      </c>
+      <c r="C216" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="4">
         <v>5</v>
       </c>
-      <c r="F214" s="33">
-        <v>54.07</v>
-      </c>
-      <c r="G214" s="33">
-        <v>270.35000000000002</v>
-      </c>
-      <c r="H214" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I214" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B215" s="25">
-        <v>30</v>
-      </c>
-      <c r="C215" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D215" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" s="25">
-        <v>4</v>
-      </c>
-      <c r="F215" s="26">
-        <v>66.66</v>
-      </c>
-      <c r="G215" s="26">
-        <v>266.64</v>
-      </c>
-      <c r="H215" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I215" s="25" t="s">
+      <c r="F216" s="5">
+        <v>46.33</v>
+      </c>
+      <c r="G216" s="5">
+        <v>231.65</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I216" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="45"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="45"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
-      <c r="F216" s="26"/>
-      <c r="G216" s="26"/>
-      <c r="H216" s="25"/>
-      <c r="I216" s="25"/>
-    </row>
     <row r="217" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B217" s="14">
-        <v>8</v>
-      </c>
-      <c r="C217" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" s="14">
-        <v>10</v>
-      </c>
-      <c r="F217" s="32">
-        <v>25.74</v>
-      </c>
-      <c r="G217" s="32">
-        <v>257.39999999999998</v>
-      </c>
-      <c r="H217" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I217" s="13" t="s">
-        <v>24</v>
+      <c r="A217" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" s="4">
+        <v>69</v>
+      </c>
+      <c r="C217" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="4">
+        <v>3</v>
+      </c>
+      <c r="F217" s="5">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="G217" s="5">
+        <v>203.97</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7869,22 +7905,22 @@
         <v>45</v>
       </c>
       <c r="B218" s="4">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C218" s="47" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E218" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F218" s="5">
-        <v>46.33</v>
+        <v>56.29</v>
       </c>
       <c r="G218" s="5">
-        <v>231.65</v>
+        <v>168.87</v>
       </c>
       <c r="H218" s="4" t="s">
         <v>46</v>
@@ -7898,10 +7934,10 @@
         <v>45</v>
       </c>
       <c r="B219" s="4">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C219" s="47" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>9</v>
@@ -7910,10 +7946,10 @@
         <v>3</v>
       </c>
       <c r="F219" s="5">
-        <v>67.989999999999995</v>
+        <v>52.56</v>
       </c>
       <c r="G219" s="5">
-        <v>203.97</v>
+        <v>157.68</v>
       </c>
       <c r="H219" s="4" t="s">
         <v>46</v>
@@ -7923,32 +7959,32 @@
       </c>
     </row>
     <row r="220" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B220" s="4">
-        <v>44</v>
-      </c>
-      <c r="C220" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E220" s="4">
+      <c r="A220" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" s="9">
+        <v>7</v>
+      </c>
+      <c r="C220" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="9">
         <v>3</v>
       </c>
-      <c r="F220" s="5">
-        <v>56.29</v>
-      </c>
-      <c r="G220" s="5">
-        <v>168.87</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>44</v>
+      <c r="F220" s="30">
+        <v>48.71</v>
+      </c>
+      <c r="G220" s="30">
+        <v>146.13</v>
+      </c>
+      <c r="H220" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7956,22 +7992,22 @@
         <v>45</v>
       </c>
       <c r="B221" s="4">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C221" s="47" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E221" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F221" s="5">
-        <v>52.56</v>
+        <v>24.93</v>
       </c>
       <c r="G221" s="5">
-        <v>157.68</v>
+        <v>124.65</v>
       </c>
       <c r="H221" s="4" t="s">
         <v>46</v>
@@ -7981,119 +8017,119 @@
       </c>
     </row>
     <row r="222" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="38" t="s">
+      <c r="A222" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B222" s="9">
-        <v>7</v>
-      </c>
-      <c r="C222" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E222" s="9">
-        <v>3</v>
-      </c>
-      <c r="F222" s="30">
-        <v>48.71</v>
-      </c>
-      <c r="G222" s="30">
-        <v>146.13</v>
-      </c>
-      <c r="H222" s="6" t="s">
+      <c r="B222" s="11">
+        <v>16</v>
+      </c>
+      <c r="C222" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" s="11">
+        <v>1</v>
+      </c>
+      <c r="F222" s="31">
+        <v>122.83</v>
+      </c>
+      <c r="G222" s="31">
+        <v>122.83</v>
+      </c>
+      <c r="H222" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I222" s="6" t="s">
+      <c r="I222" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B223" s="4">
-        <v>68</v>
-      </c>
-      <c r="C223" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" s="4">
-        <v>5</v>
-      </c>
-      <c r="F223" s="5">
-        <v>24.93</v>
-      </c>
-      <c r="G223" s="5">
-        <v>124.65</v>
-      </c>
-      <c r="H223" s="4" t="s">
+      <c r="A223" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B223" s="14">
+        <v>13</v>
+      </c>
+      <c r="C223" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D223" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="14">
+        <v>2</v>
+      </c>
+      <c r="F223" s="32">
+        <v>32.14</v>
+      </c>
+      <c r="G223" s="32">
+        <v>64.28</v>
+      </c>
+      <c r="H223" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I223" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B224" s="4">
+        <v>70</v>
+      </c>
+      <c r="C224" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" s="4">
+        <v>2</v>
+      </c>
+      <c r="F224" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="G224" s="5">
+        <v>62.4</v>
+      </c>
+      <c r="H224" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I223" s="4" t="s">
+      <c r="I224" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B224" s="11">
-        <v>16</v>
-      </c>
-      <c r="C224" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E224" s="11">
+    <row r="225" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B225" s="4">
+        <v>74</v>
+      </c>
+      <c r="C225" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" s="4">
         <v>1</v>
       </c>
-      <c r="F224" s="31">
-        <v>122.83</v>
-      </c>
-      <c r="G224" s="31">
-        <v>122.83</v>
-      </c>
-      <c r="H224" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I224" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B225" s="14">
-        <v>13</v>
-      </c>
-      <c r="C225" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D225" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E225" s="14">
-        <v>2</v>
-      </c>
-      <c r="F225" s="32">
-        <v>32.14</v>
-      </c>
-      <c r="G225" s="32">
-        <v>64.28</v>
-      </c>
-      <c r="H225" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I225" s="13" t="s">
-        <v>24</v>
+      <c r="F225" s="5">
+        <v>52.56</v>
+      </c>
+      <c r="G225" s="5">
+        <v>52.56</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8101,22 +8137,22 @@
         <v>45</v>
       </c>
       <c r="B226" s="4">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C226" s="47" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E226" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F226" s="5">
-        <v>31.2</v>
+        <v>8.83</v>
       </c>
       <c r="G226" s="5">
-        <v>62.4</v>
+        <v>44.15</v>
       </c>
       <c r="H226" s="4" t="s">
         <v>46</v>
@@ -8126,94 +8162,36 @@
       </c>
     </row>
     <row r="227" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B227" s="4">
-        <v>74</v>
-      </c>
-      <c r="C227" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E227" s="4">
+      <c r="A227" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B227" s="11">
+        <v>14</v>
+      </c>
+      <c r="C227" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" s="11">
         <v>1</v>
       </c>
-      <c r="F227" s="5">
-        <v>52.56</v>
-      </c>
-      <c r="G227" s="5">
-        <v>52.56</v>
-      </c>
-      <c r="H227" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B228" s="4">
-        <v>76</v>
-      </c>
-      <c r="C228" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" s="4">
-        <v>5</v>
-      </c>
-      <c r="F228" s="5">
-        <v>8.83</v>
-      </c>
-      <c r="G228" s="5">
-        <v>44.15</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I228" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B229" s="11">
-        <v>14</v>
-      </c>
-      <c r="C229" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E229" s="11">
-        <v>1</v>
-      </c>
-      <c r="F229" s="31">
+      <c r="F227" s="31">
         <v>33.450000000000003</v>
       </c>
-      <c r="G229" s="31">
+      <c r="G227" s="31">
         <v>33.450000000000003</v>
       </c>
-      <c r="H229" s="10" t="s">
+      <c r="H227" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I229" s="10" t="s">
+      <c r="I227" s="10" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I229" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I227" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>